--- a/Tables/table_summary.xlsx
+++ b/Tables/table_summary.xlsx
@@ -412,11 +412,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.074 (-0.022; 0.171)</t>
+          <t>0.073 (-0.026; 0.171)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -425,11 +425,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0 (0; 0.017)</t>
+          <t>0 (0; 0.018)</t>
         </is>
       </c>
       <c r="H2">
-        <v>3.475200532855388</v>
+        <v>3.420767739615418</v>
       </c>
     </row>
     <row r="3">
@@ -445,29 +445,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.103 (-0.023; 0.229)</t>
+          <t>0.101 (-0.028; 0.231)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.64 1</t>
+          <t>0.6 1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0 (0; 0.018)</t>
+          <t>0 (0; 0.019)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0 (0; 0.019)</t>
+          <t>0 (0; 0.02)</t>
         </is>
       </c>
       <c r="H3">
-        <v>2.835461990559343</v>
+        <v>2.822434743122376</v>
       </c>
     </row>
     <row r="4">
@@ -483,15 +483,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.072 (-0.271; 0.128)</t>
+          <t>-0.07 (-0.272; 0.132)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.64 10</t>
+          <t>0.6 10</t>
         </is>
       </c>
     </row>
@@ -508,24 +508,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.124 (0.006; 0.242)</t>
+          <t>0.124 (0.004; 0.244)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0 (0; 0.022)</t>
+          <t>0 (0; 0.023)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.008 (0; 0.057)</t>
+          <t>0.008 (0; 0.058)</t>
         </is>
       </c>
       <c r="H5">
-        <v>14.7234427296792</v>
+        <v>14.60532604681745</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.141 (-0.05; 0.331)</t>
+          <t>0.142 (-0.051; 0.334)</t>
         </is>
       </c>
       <c r="D6">
@@ -554,16 +554,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0 (0; 0.023)</t>
+          <t>0 (0; 0.024)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.011 (0; 0.076)</t>
+          <t>0.012 (0; 0.078)</t>
         </is>
       </c>
       <c r="H6">
-        <v>14.19753510946625</v>
+        <v>14.14424747054235</v>
       </c>
     </row>
     <row r="7">
@@ -579,11 +579,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.017 (-0.275; 0.241)</t>
+          <t>-0.02 (-0.282; 0.242)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -604,11 +604,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.14 (-0.004; 0.285)</t>
+          <t>0.141 (-0.008; 0.289)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.01 (0; 0.069)</t>
+          <t>0.01 (0; 0.071)</t>
         </is>
       </c>
       <c r="H8">
-        <v>14.70079469688774</v>
+        <v>14.57925435638744</v>
       </c>
     </row>
     <row r="9">
@@ -642,11 +642,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.045 (-0.33; 0.24)</t>
+          <t>-0.045 (-0.333; 0.242)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.153 (-0.25; 0.556)</t>
+          <t>0.153 (-0.251; 0.557)</t>
         </is>
       </c>
       <c r="D10">
@@ -680,16 +680,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0 (0; 0.022)</t>
+          <t>0 (0; 0.023)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.009 (0; 0.067)</t>
+          <t>0.009 (0; 0.069)</t>
         </is>
       </c>
       <c r="H10">
-        <v>14.53940377055424</v>
+        <v>14.41576487676482</v>
       </c>
     </row>
     <row r="11">
@@ -705,11 +705,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.029 (-0.451; 0.394)</t>
+          <t>-0.029 (-0.454; 0.395)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
